--- a/1_excel_Source/medicine_patient.xlsx
+++ b/1_excel_Source/medicine_patient.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faisa\OneDrive\Documents\Hospital_CAI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527E807-498F-4F30-BFF1-54FF37672E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90F7F0BD-DE89-4433-B1CF-7611AB4BAB1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$518</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="49">
   <si>
     <t>medicine_id</t>
   </si>
@@ -192,8 +185,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -337,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -551,28 +544,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634226B-9DC8-458C-AF1B-610DAAC1D7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD386"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -586,7 +579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -600,7 +593,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -614,7 +607,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -628,7 +621,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -642,7 +635,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -656,7 +649,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -670,7 +663,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -684,7 +677,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -698,7 +691,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -712,7 +705,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -726,7 +719,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -740,7 +733,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -754,7 +747,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -768,7 +761,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -782,7 +775,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -796,7 +789,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -810,7 +803,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -824,7 +817,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -838,7 +831,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -852,7 +845,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -866,7 +859,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -880,7 +873,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -894,7 +887,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -908,7 +901,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -922,7 +915,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -936,7 +929,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -950,7 +943,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -964,7 +957,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -978,7 +971,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -992,7 +985,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1006,7 +999,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1020,7 +1013,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1034,7 +1027,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1041,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1055,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1076,7 +1069,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1090,7 +1083,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1097,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1118,7 +1111,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1125,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1146,7 +1139,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1160,7 +1153,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -1174,7 +1167,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1188,7 +1181,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1202,7 +1195,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1216,7 +1209,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1230,7 +1223,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -1244,7 +1237,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -1258,7 +1251,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -1272,7 +1265,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -1286,7 +1279,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1300,7 +1293,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -1314,7 +1307,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -1328,7 +1321,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -1342,7 +1335,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -1356,7 +1349,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -1370,7 +1363,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -1384,7 +1377,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -1398,7 +1391,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -1412,7 +1405,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1419,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1440,7 +1433,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1454,7 +1447,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +1461,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1482,7 +1475,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -1496,7 +1489,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1503,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -1524,7 +1517,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1531,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -1552,7 +1545,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -1566,7 +1559,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -1580,7 +1573,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -1594,7 +1587,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -1608,7 +1601,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1629,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -1650,7 +1643,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -1664,7 +1657,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -1678,7 +1671,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -1692,7 +1685,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -1706,7 +1699,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -1720,7 +1713,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -1734,7 +1727,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -1748,7 +1741,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1755,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +1769,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1783,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -1804,7 +1797,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +1811,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -1832,7 +1825,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -1846,7 +1839,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -1860,7 +1853,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1867,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1881,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -1902,7 +1895,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -1916,7 +1909,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -1930,7 +1923,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -1944,7 +1937,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +1951,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>32</v>
       </c>
@@ -1972,7 +1965,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +1979,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -2000,7 +1993,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -2014,7 +2007,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -2028,7 +2021,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -2042,7 +2035,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -2056,7 +2049,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -2070,7 +2063,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -2084,7 +2077,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>41</v>
       </c>
@@ -2098,7 +2091,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>42</v>
       </c>
@@ -2112,7 +2105,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>43</v>
       </c>
@@ -2126,7 +2119,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -2140,7 +2133,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>45</v>
       </c>
@@ -2154,7 +2147,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -2168,7 +2161,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -2182,7 +2175,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -2196,7 +2189,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -2210,7 +2203,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -2224,7 +2217,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -2238,7 +2231,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2245,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -2266,7 +2259,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -2280,7 +2273,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -2294,7 +2287,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -2308,7 +2301,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -2322,7 +2315,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -2336,7 +2329,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -2350,7 +2343,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -2364,7 +2357,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>34</v>
       </c>
@@ -2378,7 +2371,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>35</v>
       </c>
@@ -2392,7 +2385,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -2406,7 +2399,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -2420,7 +2413,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>39</v>
       </c>
@@ -2434,7 +2427,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -2448,7 +2441,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -2462,7 +2455,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>42</v>
       </c>
@@ -2476,7 +2469,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>43</v>
       </c>
@@ -2490,7 +2483,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -2504,7 +2497,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -2518,7 +2511,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>46</v>
       </c>
@@ -2532,7 +2525,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -2546,7 +2539,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -2560,7 +2553,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -2574,7 +2567,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -2588,7 +2581,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +2595,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>22</v>
       </c>
@@ -2616,7 +2609,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -2630,7 +2623,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -2644,7 +2637,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>25</v>
       </c>
@@ -2658,7 +2651,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -2686,7 +2679,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -2700,7 +2693,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>29</v>
       </c>
@@ -2714,7 +2707,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -2728,7 +2721,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -2742,7 +2735,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>32</v>
       </c>
@@ -2756,7 +2749,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>33</v>
       </c>
@@ -2770,7 +2763,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -2784,7 +2777,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -2798,7 +2791,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -2812,7 +2805,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -2826,7 +2819,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>38</v>
       </c>
@@ -2840,7 +2833,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -2854,7 +2847,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -2868,7 +2861,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -2882,7 +2875,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -2896,7 +2889,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -2910,7 +2903,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>44</v>
       </c>
@@ -2924,7 +2917,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -2938,7 +2931,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>46</v>
       </c>
@@ -2952,7 +2945,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -2966,7 +2959,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -2980,7 +2973,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -2994,7 +2987,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -3008,7 +3001,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -3022,7 +3015,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>22</v>
       </c>
@@ -3036,7 +3029,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -3050,7 +3043,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>25</v>
       </c>
@@ -3064,7 +3057,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -3078,7 +3071,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -3092,7 +3085,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>28</v>
       </c>
@@ -3106,7 +3099,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>29</v>
       </c>
@@ -3120,7 +3113,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -3134,7 +3127,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -3148,7 +3141,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -3162,7 +3155,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -3176,7 +3169,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>34</v>
       </c>
@@ -3190,7 +3183,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>35</v>
       </c>
@@ -3204,7 +3197,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -3218,7 +3211,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>37</v>
       </c>
@@ -3232,7 +3225,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -3246,7 +3239,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>39</v>
       </c>
@@ -3260,7 +3253,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>40</v>
       </c>
@@ -3274,7 +3267,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -3288,7 +3281,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -3302,7 +3295,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>43</v>
       </c>
@@ -3316,7 +3309,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>44</v>
       </c>
@@ -3330,7 +3323,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>45</v>
       </c>
@@ -3344,7 +3337,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -3358,7 +3351,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -3372,7 +3365,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -3386,7 +3379,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -3400,7 +3393,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -3414,7 +3407,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -3428,7 +3421,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -3442,7 +3435,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -3456,7 +3449,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -3470,7 +3463,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>25</v>
       </c>
@@ -3484,7 +3477,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -3498,7 +3491,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>27</v>
       </c>
@@ -3512,7 +3505,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -3526,7 +3519,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>29</v>
       </c>
@@ -3540,7 +3533,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -3554,7 +3547,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>31</v>
       </c>
@@ -3568,7 +3561,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -3582,7 +3575,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -3596,7 +3589,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>34</v>
       </c>
@@ -3610,7 +3603,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>35</v>
       </c>
@@ -3624,7 +3617,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>36</v>
       </c>
@@ -3638,7 +3631,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>37</v>
       </c>
@@ -3652,7 +3645,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>38</v>
       </c>
@@ -3666,7 +3659,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>39</v>
       </c>
@@ -3680,7 +3673,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>40</v>
       </c>
@@ -3694,7 +3687,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>41</v>
       </c>
@@ -3708,7 +3701,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>42</v>
       </c>
@@ -3722,7 +3715,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>43</v>
       </c>
@@ -3736,7 +3729,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>44</v>
       </c>
@@ -3750,7 +3743,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>45</v>
       </c>
@@ -3764,7 +3757,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>46</v>
       </c>
@@ -3778,7 +3771,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -3792,7 +3785,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>18</v>
       </c>
@@ -3806,7 +3799,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>20</v>
       </c>
@@ -3820,7 +3813,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -3834,7 +3827,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -3848,7 +3841,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>23</v>
       </c>
@@ -3862,7 +3855,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -3876,7 +3869,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -3890,7 +3883,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -3904,7 +3897,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -3918,7 +3911,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>28</v>
       </c>
@@ -3932,7 +3925,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>29</v>
       </c>
@@ -3946,7 +3939,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>30</v>
       </c>
@@ -3960,7 +3953,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>31</v>
       </c>
@@ -3974,7 +3967,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -3988,7 +3981,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>33</v>
       </c>
@@ -4002,7 +3995,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>34</v>
       </c>
@@ -4016,7 +4009,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>35</v>
       </c>
@@ -4030,7 +4023,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>36</v>
       </c>
@@ -4044,7 +4037,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>37</v>
       </c>
@@ -4058,7 +4051,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>38</v>
       </c>
@@ -4072,7 +4065,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -4086,7 +4079,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>40</v>
       </c>
@@ -4100,7 +4093,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>41</v>
       </c>
@@ -4114,7 +4107,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>42</v>
       </c>
@@ -4128,7 +4121,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>43</v>
       </c>
@@ -4142,7 +4135,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>44</v>
       </c>
@@ -4156,7 +4149,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>45</v>
       </c>
@@ -4170,7 +4163,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>46</v>
       </c>
@@ -4184,7 +4177,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -4198,7 +4191,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>18</v>
       </c>
@@ -4212,7 +4205,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -4226,7 +4219,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -4240,7 +4233,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>21</v>
       </c>
@@ -4254,7 +4247,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -4268,7 +4261,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -4282,7 +4275,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -4296,7 +4289,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -4310,7 +4303,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>26</v>
       </c>
@@ -4324,7 +4317,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>27</v>
       </c>
@@ -4338,7 +4331,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>28</v>
       </c>
@@ -4352,7 +4345,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>29</v>
       </c>
@@ -4366,7 +4359,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>30</v>
       </c>
@@ -4380,7 +4373,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>31</v>
       </c>
@@ -4394,7 +4387,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>32</v>
       </c>
@@ -4408,7 +4401,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>33</v>
       </c>
@@ -4422,7 +4415,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>34</v>
       </c>
@@ -4436,7 +4429,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>35</v>
       </c>
@@ -4450,7 +4443,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>36</v>
       </c>
@@ -4464,7 +4457,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>37</v>
       </c>
@@ -4478,7 +4471,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>38</v>
       </c>
@@ -4492,7 +4485,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>39</v>
       </c>
@@ -4506,7 +4499,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>40</v>
       </c>
@@ -4520,7 +4513,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>41</v>
       </c>
@@ -4534,7 +4527,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>42</v>
       </c>
@@ -4548,7 +4541,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>43</v>
       </c>
@@ -4562,7 +4555,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>44</v>
       </c>
@@ -4576,7 +4569,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>45</v>
       </c>
@@ -4590,7 +4583,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>46</v>
       </c>
@@ -4604,7 +4597,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -4618,7 +4611,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>18</v>
       </c>
@@ -4632,7 +4625,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>20</v>
       </c>
@@ -4646,7 +4639,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>21</v>
       </c>
@@ -4660,7 +4653,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>22</v>
       </c>
@@ -4674,7 +4667,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>23</v>
       </c>
@@ -4688,7 +4681,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>24</v>
       </c>
@@ -4702,7 +4695,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>25</v>
       </c>
@@ -4716,7 +4709,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -4730,7 +4723,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>28</v>
       </c>
@@ -4744,7 +4737,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>29</v>
       </c>
@@ -4758,7 +4751,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>30</v>
       </c>
@@ -4772,7 +4765,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>31</v>
       </c>
@@ -4786,7 +4779,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>32</v>
       </c>
@@ -4800,7 +4793,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>33</v>
       </c>
@@ -4814,7 +4807,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>34</v>
       </c>
@@ -4828,7 +4821,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>35</v>
       </c>
@@ -4842,7 +4835,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>36</v>
       </c>
@@ -4856,7 +4849,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>38</v>
       </c>
@@ -4870,7 +4863,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>39</v>
       </c>
@@ -4884,7 +4877,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>40</v>
       </c>
@@ -4898,7 +4891,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>41</v>
       </c>
@@ -4912,7 +4905,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>42</v>
       </c>
@@ -4926,7 +4919,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>43</v>
       </c>
@@ -4940,7 +4933,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>44</v>
       </c>
@@ -4954,7 +4947,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>45</v>
       </c>
@@ -4968,7 +4961,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>46</v>
       </c>
@@ -4982,7 +4975,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -4996,7 +4989,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>18</v>
       </c>
@@ -5010,7 +5003,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>19</v>
       </c>
@@ -5024,7 +5017,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>20</v>
       </c>
@@ -5038,7 +5031,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>21</v>
       </c>
@@ -5052,7 +5045,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>22</v>
       </c>
@@ -5066,7 +5059,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>23</v>
       </c>
@@ -5080,7 +5073,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>24</v>
       </c>
@@ -5094,7 +5087,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>25</v>
       </c>
@@ -5108,7 +5101,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>26</v>
       </c>
@@ -5122,7 +5115,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>27</v>
       </c>
@@ -5136,7 +5129,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>28</v>
       </c>
@@ -5150,7 +5143,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>29</v>
       </c>
@@ -5164,7 +5157,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>30</v>
       </c>
@@ -5178,7 +5171,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>31</v>
       </c>
@@ -5192,7 +5185,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>32</v>
       </c>
@@ -5206,7 +5199,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -5220,7 +5213,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>34</v>
       </c>
@@ -5234,7 +5227,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>35</v>
       </c>
@@ -5248,7 +5241,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -5262,7 +5255,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>37</v>
       </c>
@@ -5276,7 +5269,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>38</v>
       </c>
@@ -5290,7 +5283,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -5304,7 +5297,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>40</v>
       </c>
@@ -5318,7 +5311,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>41</v>
       </c>
@@ -5332,7 +5325,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>42</v>
       </c>
@@ -5346,7 +5339,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>43</v>
       </c>
@@ -5360,7 +5353,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>44</v>
       </c>
@@ -5374,7 +5367,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>45</v>
       </c>
@@ -5388,7 +5381,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>46</v>
       </c>
@@ -5402,7 +5395,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>17</v>
       </c>
@@ -5416,7 +5409,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>18</v>
       </c>
@@ -5430,7 +5423,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -5444,7 +5437,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>21</v>
       </c>
@@ -5458,7 +5451,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>22</v>
       </c>
@@ -5472,7 +5465,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>23</v>
       </c>
@@ -5486,7 +5479,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>24</v>
       </c>
@@ -5500,7 +5493,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>25</v>
       </c>
@@ -5514,7 +5507,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>26</v>
       </c>
@@ -5528,7 +5521,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>27</v>
       </c>
@@ -5542,7 +5535,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>28</v>
       </c>
@@ -5556,7 +5549,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>29</v>
       </c>
@@ -5570,7 +5563,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>30</v>
       </c>
@@ -5584,7 +5577,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>31</v>
       </c>
@@ -5598,7 +5591,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>32</v>
       </c>
@@ -5612,7 +5605,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>33</v>
       </c>
@@ -5626,7 +5619,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>34</v>
       </c>
@@ -5640,7 +5633,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>35</v>
       </c>
@@ -5654,7 +5647,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>36</v>
       </c>
@@ -5668,7 +5661,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>37</v>
       </c>
@@ -5682,7 +5675,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>38</v>
       </c>
@@ -5696,7 +5689,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>39</v>
       </c>
@@ -5710,7 +5703,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>40</v>
       </c>
@@ -5724,7 +5717,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>41</v>
       </c>
@@ -5738,7 +5731,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>42</v>
       </c>
@@ -5752,7 +5745,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>43</v>
       </c>
@@ -5766,7 +5759,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>45</v>
       </c>
@@ -5780,7 +5773,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>46</v>
       </c>
@@ -5794,7 +5787,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>17</v>
       </c>
@@ -5808,7 +5801,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>18</v>
       </c>
@@ -5822,7 +5815,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>19</v>
       </c>
@@ -5836,7 +5829,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>20</v>
       </c>
@@ -5850,7 +5843,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>21</v>
       </c>
@@ -5864,7 +5857,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -5878,7 +5871,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>23</v>
       </c>
@@ -5892,7 +5885,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>24</v>
       </c>
@@ -5906,7 +5899,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>25</v>
       </c>
@@ -5920,7 +5913,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>26</v>
       </c>
@@ -5934,7 +5927,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>27</v>
       </c>
@@ -5948,7 +5941,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>28</v>
       </c>
@@ -5962,7 +5955,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>29</v>
       </c>
@@ -5976,7 +5969,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>30</v>
       </c>
@@ -5990,7 +5983,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>31</v>
       </c>
@@ -6004,7 +5997,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>32</v>
       </c>
@@ -6018,7 +6011,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>33</v>
       </c>
@@ -6032,7 +6025,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>34</v>
       </c>
@@ -6046,7 +6039,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>35</v>
       </c>
@@ -6060,7 +6053,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>36</v>
       </c>
@@ -6074,7 +6067,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>37</v>
       </c>
@@ -6088,7 +6081,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>38</v>
       </c>
@@ -6102,7 +6095,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>39</v>
       </c>
@@ -6116,7 +6109,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>40</v>
       </c>
@@ -6130,7 +6123,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>41</v>
       </c>
@@ -6144,7 +6137,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>42</v>
       </c>
@@ -6158,7 +6151,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>43</v>
       </c>
@@ -6172,7 +6165,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>44</v>
       </c>
@@ -6186,7 +6179,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>45</v>
       </c>
@@ -6200,7 +6193,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>46</v>
       </c>
@@ -6214,7 +6207,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>17</v>
       </c>
@@ -6228,7 +6221,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>18</v>
       </c>
@@ -6242,7 +6235,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>19</v>
       </c>
@@ -6256,7 +6249,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>20</v>
       </c>
@@ -6270,7 +6263,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>23</v>
       </c>
@@ -6284,7 +6277,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -6298,7 +6291,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>25</v>
       </c>
@@ -6312,7 +6305,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>26</v>
       </c>
@@ -6326,7 +6319,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>28</v>
       </c>
@@ -6340,7 +6333,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>29</v>
       </c>
@@ -6354,7 +6347,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>30</v>
       </c>
@@ -6368,7 +6361,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>31</v>
       </c>
@@ -6382,7 +6375,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>32</v>
       </c>
@@ -6396,7 +6389,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>33</v>
       </c>
@@ -6410,7 +6403,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>34</v>
       </c>
@@ -6424,7 +6417,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>35</v>
       </c>
@@ -6438,7 +6431,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>36</v>
       </c>
@@ -6452,7 +6445,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>37</v>
       </c>
@@ -6466,7 +6459,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>39</v>
       </c>
@@ -6480,7 +6473,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>40</v>
       </c>
@@ -6494,7 +6487,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>41</v>
       </c>
@@ -6508,7 +6501,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>42</v>
       </c>
@@ -6522,7 +6515,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>43</v>
       </c>
@@ -6536,7 +6529,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>44</v>
       </c>
@@ -6550,7 +6543,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>45</v>
       </c>
@@ -6564,7 +6557,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>46</v>
       </c>
@@ -6578,7 +6571,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>17</v>
       </c>
@@ -6592,7 +6585,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>18</v>
       </c>
@@ -6606,7 +6599,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>19</v>
       </c>
@@ -6620,7 +6613,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>20</v>
       </c>
@@ -6634,7 +6627,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>21</v>
       </c>
@@ -6648,7 +6641,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>22</v>
       </c>
@@ -6662,7 +6655,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>23</v>
       </c>
@@ -6676,7 +6669,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>24</v>
       </c>
@@ -6690,7 +6683,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>25</v>
       </c>
@@ -6704,7 +6697,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>26</v>
       </c>
@@ -6718,7 +6711,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>27</v>
       </c>
@@ -6732,7 +6725,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>28</v>
       </c>
@@ -6746,7 +6739,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>29</v>
       </c>
@@ -6760,7 +6753,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>30</v>
       </c>
@@ -6774,7 +6767,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>31</v>
       </c>
@@ -6788,7 +6781,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>32</v>
       </c>
@@ -6802,7 +6795,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>33</v>
       </c>
@@ -6816,7 +6809,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>34</v>
       </c>
@@ -6830,7 +6823,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>35</v>
       </c>
@@ -6844,7 +6837,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>36</v>
       </c>
@@ -6858,7 +6851,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>37</v>
       </c>
@@ -6872,7 +6865,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>38</v>
       </c>
@@ -6886,7 +6879,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>39</v>
       </c>
@@ -6900,7 +6893,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>40</v>
       </c>
@@ -6914,7 +6907,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>41</v>
       </c>
@@ -6928,7 +6921,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>42</v>
       </c>
@@ -6942,7 +6935,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>43</v>
       </c>
@@ -6956,7 +6949,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
         <v>44</v>
       </c>
@@ -6970,7 +6963,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>45</v>
       </c>
@@ -6984,7 +6977,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>46</v>
       </c>
@@ -6998,7 +6991,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>17</v>
       </c>
@@ -7012,7 +7005,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>18</v>
       </c>
@@ -7026,7 +7019,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>19</v>
       </c>
@@ -7040,7 +7033,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>20</v>
       </c>
@@ -7054,7 +7047,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>21</v>
       </c>
@@ -7068,7 +7061,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>22</v>
       </c>
@@ -7082,7 +7075,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>23</v>
       </c>
@@ -7096,7 +7089,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>24</v>
       </c>
@@ -7110,7 +7103,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>25</v>
       </c>
@@ -7124,7 +7117,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>26</v>
       </c>
@@ -7138,7 +7131,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>27</v>
       </c>
@@ -7152,7 +7145,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>28</v>
       </c>
@@ -7166,7 +7159,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>29</v>
       </c>
@@ -7180,7 +7173,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>30</v>
       </c>
@@ -7194,7 +7187,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>31</v>
       </c>
@@ -7208,7 +7201,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>32</v>
       </c>
@@ -7222,7 +7215,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>33</v>
       </c>
@@ -7236,7 +7229,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>34</v>
       </c>
@@ -7250,7 +7243,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>35</v>
       </c>
@@ -7264,7 +7257,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>37</v>
       </c>
@@ -7278,7 +7271,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>38</v>
       </c>
@@ -7292,7 +7285,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>39</v>
       </c>
@@ -7306,7 +7299,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>40</v>
       </c>
@@ -7320,7 +7313,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>41</v>
       </c>
@@ -7334,7 +7327,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>42</v>
       </c>
@@ -7348,7 +7341,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>43</v>
       </c>
@@ -7362,7 +7355,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>44</v>
       </c>
@@ -7376,7 +7369,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>45</v>
       </c>
@@ -7390,7 +7383,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>46</v>
       </c>
@@ -7404,7 +7397,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>17</v>
       </c>
@@ -7418,7 +7411,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>18</v>
       </c>
@@ -7432,7 +7425,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>19</v>
       </c>
@@ -7446,7 +7439,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>20</v>
       </c>
@@ -7460,7 +7453,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
         <v>21</v>
       </c>
@@ -7474,7 +7467,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>22</v>
       </c>
@@ -7488,7 +7481,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>23</v>
       </c>
@@ -7502,7 +7495,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>24</v>
       </c>
@@ -7516,7 +7509,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>25</v>
       </c>
@@ -7530,7 +7523,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>26</v>
       </c>
@@ -7544,7 +7537,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
         <v>27</v>
       </c>
@@ -7558,7 +7551,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>28</v>
       </c>
@@ -7572,7 +7565,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
         <v>29</v>
       </c>
@@ -7586,7 +7579,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4">
       <c r="A502" t="s">
         <v>30</v>
       </c>
@@ -7600,7 +7593,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
         <v>31</v>
       </c>
@@ -7614,7 +7607,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
         <v>32</v>
       </c>
@@ -7628,7 +7621,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
         <v>33</v>
       </c>
@@ -7642,7 +7635,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
         <v>34</v>
       </c>
@@ -7656,7 +7649,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
         <v>35</v>
       </c>
@@ -7670,7 +7663,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:4">
       <c r="A508" t="s">
         <v>36</v>
       </c>
@@ -7684,7 +7677,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:4">
       <c r="A509" t="s">
         <v>37</v>
       </c>
@@ -7698,7 +7691,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
         <v>38</v>
       </c>
@@ -7712,7 +7705,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
         <v>39</v>
       </c>
@@ -7726,7 +7719,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
         <v>40</v>
       </c>
@@ -7740,7 +7733,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>41</v>
       </c>
@@ -7754,7 +7747,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>42</v>
       </c>
@@ -7768,7 +7761,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>43</v>
       </c>
@@ -7782,7 +7775,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>44</v>
       </c>
@@ -7796,7 +7789,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>45</v>
       </c>
@@ -7810,7 +7803,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>46</v>
       </c>
@@ -7822,171 +7815,6 @@
       </c>
       <c r="D518" s="1">
         <v>45061</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A1E5A1-3FDC-4426-AF3A-68FBD3DFB758}">
-  <dimension ref="A1:A30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
